--- a/resultados/resultados_forest.xlsx
+++ b/resultados/resultados_forest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,16 @@
           <t>#Árvores</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 5</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Notas</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -478,6 +488,8 @@
       <c r="E2" t="n">
         <v>10</v>
       </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -497,6 +509,8 @@
       <c r="E3" t="n">
         <v>10</v>
       </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -516,6 +530,8 @@
       <c r="E4" t="n">
         <v>20</v>
       </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -527,14 +543,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.7115542857142857</v>
+        <v>0.711554285714286</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05360722712315386</v>
+        <v>0.0536072271231539</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -549,11 +567,84 @@
         <v>0.722810612244898</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05705665364309353</v>
+        <v>0.0570566536430935</v>
       </c>
       <c r="E6" t="n">
         <v>20</v>
       </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>250</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>number_of_seasons</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.707593898165327</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0430850826017729</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>250</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>number_of_seasons</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.841709168671478</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0480234733581948</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  </t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Após remover outliers</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>250</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>number_of_seasons</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8406495589414594</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.04752548376971598</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/resultados/resultados_forest.xlsx
+++ b/resultados/resultados_forest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -646,6 +646,27 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
     </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>number_of_seasons</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.763870780420232</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2072117123926988</v>
+      </c>
+      <c r="E10" t="n">
+        <v>100</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
